--- a/biology/Histoire de la zoologie et de la botanique/Max_Bloesch/Max_Bloesch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Max_Bloesch/Max_Bloesch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Bloesch (également Blösch), né le 27 juin 1908 à Olten et décédé le 9 août 1997 à Soleure, était un professeur de gymnastique suisse, connu sous le surnom de "père des cigognes" grâce à son engagement réussi pour la réintroduction de la Cigogne blanche en Suisse.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie professionnelle et privée
-Max Bloesch, fils d'un comptable, est né à Olten[1]. Après avoir fréquenté l'école normale de Soleure et suivi une formation de professeur de gymnastique à l'université de Bâle, il a d'abord travaillé comme enseignant à l'école polyvalente du hameau de Huggerwald, dans la commune soleuroise de Kleinlützel, puis comme maître de gymnastique auxiliaire à l'école cantonale de Winterthour[1]. Depuis 1935, Bloesch était professeur de gymnastique aux écoles de la ville de Soleure, puis à l'école de district de Soleure à partir de 1956 et jusqu'à sa retraite en 1970[1]. Le mariage de Max Bloesch avec Aline Hottiger († 1977) a donné naissance à trois filles et un fils[1].
-Engagement en faveur de la Cigogne blanche
-Déjà pendant ses études à l'école normale, Max Bloesch s'est consacré à l'observation des oiseaux et a développé un intérêt particulier pour les cigognes. Constatant que la Cigogne blanche était proche de l'extinction en Suisse, Bloesch a pris la décision de créer une colonie de cigognes. Celle-ci vit le jour dès 1948 à Altreu, dans la commune soleuroise de Selzach, d'abord avec des cigognes d'Alsace et de Tchécoslovaquie, puis avec un plus grand nombre de jeunes cigognes d'Algérie[1]. À cette époque, la cigogne était considérée comme éteinte en Suisse. Grâce à la station mère d'Altreu et, au fil du temps, aux 22 stations extérieures situées entre le lac Léman et le lac de Constance, Bloesch a toutefois pu faire en sorte que la cigogne s'installe à nouveau durablement dans le pays. En 1997, année de la mort de Bloesch, on comptait 170 couples nicheurs dans tout le pays.
-Carrière sportive
-En tant que joueur de handball, Max Bloesch faisait partie de l'équipe qui a remporté la médaille de bronze aux Jeux olympiques d'été de 1936. Il a disputé un match. En tant que professeur de gymnastique, Bloesch a été l'un des pionniers de l'utilisation de la musique dans les cours de gymnastique[1].
+          <t>Vie professionnelle et privée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max Bloesch, fils d'un comptable, est né à Olten. Après avoir fréquenté l'école normale de Soleure et suivi une formation de professeur de gymnastique à l'université de Bâle, il a d'abord travaillé comme enseignant à l'école polyvalente du hameau de Huggerwald, dans la commune soleuroise de Kleinlützel, puis comme maître de gymnastique auxiliaire à l'école cantonale de Winterthour. Depuis 1935, Bloesch était professeur de gymnastique aux écoles de la ville de Soleure, puis à l'école de district de Soleure à partir de 1956 et jusqu'à sa retraite en 1970. Le mariage de Max Bloesch avec Aline Hottiger († 1977) a donné naissance à trois filles et un fils.
 </t>
         </is>
       </c>
@@ -544,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Prix et reconnaissances</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 1983, Bloesch a reçu un doctorat honoris causa de l'université de Berne pour ses accomplissements ornithologiques. En 1986, il a reçu le prix Adèle Duttweiler.
+          <t>Engagement en faveur de la Cigogne blanche</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Déjà pendant ses études à l'école normale, Max Bloesch s'est consacré à l'observation des oiseaux et a développé un intérêt particulier pour les cigognes. Constatant que la Cigogne blanche était proche de l'extinction en Suisse, Bloesch a pris la décision de créer une colonie de cigognes. Celle-ci vit le jour dès 1948 à Altreu, dans la commune soleuroise de Selzach, d'abord avec des cigognes d'Alsace et de Tchécoslovaquie, puis avec un plus grand nombre de jeunes cigognes d'Algérie. À cette époque, la cigogne était considérée comme éteinte en Suisse. Grâce à la station mère d'Altreu et, au fil du temps, aux 22 stations extérieures situées entre le lac Léman et le lac de Constance, Bloesch a toutefois pu faire en sorte que la cigogne s'installe à nouveau durablement dans le pays. En 1997, année de la mort de Bloesch, on comptait 170 couples nicheurs dans tout le pays.
 </t>
         </is>
       </c>
@@ -575,10 +594,82 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière sportive</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tant que joueur de handball, Max Bloesch faisait partie de l'équipe qui a remporté la médaille de bronze aux Jeux olympiques d'été de 1936. Il a disputé un match. En tant que professeur de gymnastique, Bloesch a été l'un des pionniers de l'utilisation de la musique dans les cours de gymnastique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Max_Bloesch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Max_Bloesch</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prix et reconnaissances</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1983, Bloesch a reçu un doctorat honoris causa de l'université de Berne pour ses accomplissements ornithologiques. En 1986, il a reçu le prix Adèle Duttweiler.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Max_Bloesch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Max_Bloesch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Korbball. Fédération suisse de gymnastique, Aarau, 1949 (2ème édition, 1953).
 Stirbt der Storch in der Schweiz aus? 1948-1958, 10 Jahre Storchenansiedlungsversuch Altreu. Station ornithologique suisse de Sempach, Sempach, 1958.
